--- a/table/item.xlsx
+++ b/table/item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MScannot206Server\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D60958-E14C-4D7C-ABB0-B48BE555B036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE14F19-5608-47A1-9088-D8BFCE809E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-1740" windowWidth="29040" windowHeight="17640" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
